--- a/Jiean/词汇量.xlsx
+++ b/Jiean/词汇量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>except</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,34 @@
   </si>
   <si>
     <t>取消</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>['meʒə]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>度量，测量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[rɪ'leɪtɪd]</t>
+  </si>
+  <si>
+    <t>关联的</t>
   </si>
 </sst>
 </file>
@@ -581,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" activeCellId="1" sqref="C11 F18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,8 +720,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -703,8 +731,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -712,6 +740,28 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/词汇量.xlsx
+++ b/Jiean/词汇量.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>except</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,24 @@
   </si>
   <si>
     <t>关联的</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>[pə'sent]</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>[kwəʊt]</t>
+  </si>
+  <si>
+    <t>引用</t>
   </si>
 </sst>
 </file>
@@ -609,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,6 +780,28 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/词汇量.xlsx
+++ b/Jiean/词汇量.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>except</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>引用</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>[pə'ræmɪtə]</t>
+  </si>
+  <si>
+    <t>参数</t>
   </si>
 </sst>
 </file>
@@ -627,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,6 +811,17 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/词汇量.xlsx
+++ b/Jiean/词汇量.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>except</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>参数</t>
+  </si>
+  <si>
+    <t>['prɒpətɪ]</t>
+  </si>
+  <si>
+    <t> 性质</t>
   </si>
 </sst>
 </file>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,6 +828,17 @@
       </c>
       <c r="C16" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
